--- a/results/null.xlsx
+++ b/results/null.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>rr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>was born</t>
+          <t>hit</t>
         </is>
       </c>
     </row>
@@ -506,10 +501,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -543,10 +535,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +569,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -617,10 +603,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -654,10 +637,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -691,10 +671,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -728,10 +705,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +739,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -802,10 +773,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -839,10 +807,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -876,10 +841,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -913,10 +875,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -950,10 +909,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -987,10 +943,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -1024,10 +977,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -1061,10 +1011,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -1098,10 +1045,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -1135,10 +1079,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -1168,10 +1109,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -1205,10 +1143,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1242,10 +1177,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -1279,10 +1211,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -1316,10 +1245,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -1353,10 +1279,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -1390,10 +1313,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1427,10 +1347,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
@@ -1464,10 +1381,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1501,10 +1415,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -1538,10 +1449,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
@@ -1575,10 +1483,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1612,10 +1517,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1649,10 +1551,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -1686,10 +1585,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1723,10 +1619,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1760,10 +1653,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1797,10 +1687,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1834,10 +1721,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1871,10 +1755,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1908,10 +1789,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -1945,10 +1823,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1982,10 +1857,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
@@ -2019,10 +1891,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -2056,10 +1925,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -2093,10 +1959,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -2130,10 +1993,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -2167,10 +2027,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -2204,10 +2061,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -2241,10 +2095,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -2278,10 +2129,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -2315,10 +2163,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -2352,10 +2197,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -2389,10 +2231,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -2426,10 +2265,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -2463,10 +2299,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -2500,10 +2333,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -2537,10 +2367,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -2574,10 +2401,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -2611,10 +2435,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -2648,10 +2469,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -2685,10 +2503,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -2722,10 +2537,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -2759,10 +2571,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -2796,10 +2605,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -2833,10 +2639,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -2870,10 +2673,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -2907,10 +2707,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
@@ -2944,10 +2741,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -2981,10 +2775,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -3018,10 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71">
@@ -3055,10 +2843,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -3092,10 +2877,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -3129,10 +2911,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -3166,10 +2945,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -3203,10 +2979,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -3240,10 +3013,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
@@ -3277,10 +3047,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -3314,10 +3081,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
@@ -3351,10 +3115,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -3388,10 +3149,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -3425,10 +3183,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -3462,10 +3217,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -3499,10 +3251,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
@@ -3536,10 +3285,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -3573,10 +3319,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -3610,10 +3353,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
@@ -3647,10 +3387,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
@@ -3684,10 +3421,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -3721,10 +3455,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -3758,10 +3489,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -3795,10 +3523,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -3832,10 +3557,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
@@ -3869,10 +3591,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
@@ -3906,10 +3625,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -3943,10 +3659,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -3980,10 +3693,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -4017,10 +3727,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
@@ -4054,10 +3761,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
@@ -4091,10 +3795,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -4128,10 +3829,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -4165,10 +3863,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -4202,10 +3897,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -4239,10 +3931,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -4276,10 +3965,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -4313,10 +3999,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -4350,10 +4033,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -4387,10 +4067,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -4424,10 +4101,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -4461,10 +4135,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -4498,10 +4169,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -4535,10 +4203,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -4572,10 +4237,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
@@ -4609,10 +4271,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -4646,10 +4305,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -4683,10 +4339,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I115" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -4720,10 +4373,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I116" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
@@ -4757,10 +4407,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I117" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -4794,10 +4441,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I118" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -4831,10 +4475,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -4868,10 +4509,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I120" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
@@ -4905,10 +4543,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I121" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -4942,10 +4577,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I122" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
@@ -4979,10 +4611,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I123" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -5016,10 +4645,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I124" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -5053,10 +4679,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I125" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
@@ -5090,10 +4713,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I126" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -5127,10 +4747,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I127" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
@@ -5164,10 +4781,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I128" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
@@ -5201,10 +4815,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I129" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -5238,10 +4849,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I130" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -5275,10 +4883,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I131" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
@@ -5312,10 +4917,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I132" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133">
@@ -5349,10 +4951,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I133" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
@@ -5386,10 +4985,7 @@
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I134" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
@@ -5423,10 +5019,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I135" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -5460,10 +5053,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I136" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -5497,10 +5087,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I137" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -5534,10 +5121,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I138" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
@@ -5571,10 +5155,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I139" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140">
@@ -5608,10 +5189,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I140" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -5645,10 +5223,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I141" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142">
@@ -5682,10 +5257,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I142" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
@@ -5719,10 +5291,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I143" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
@@ -5756,10 +5325,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I144" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -5793,10 +5359,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -5830,10 +5393,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I146" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -5867,10 +5427,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I147" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -5904,10 +5461,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I148" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -5941,10 +5495,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I149" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -5978,10 +5529,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I150" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -6015,10 +5563,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I151" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -6052,10 +5597,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I152" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
@@ -6089,10 +5631,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I153" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
@@ -6126,10 +5665,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I154" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -6163,10 +5699,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I155" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -6200,10 +5733,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I156" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -6237,10 +5767,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I157" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -6274,10 +5801,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I158" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159">
@@ -6311,10 +5835,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I159" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -6348,10 +5869,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I160" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -6385,10 +5903,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I161" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -6422,10 +5937,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I162" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -6459,10 +5971,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I163" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
@@ -6496,10 +6005,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I164" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -6533,10 +6039,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I165" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
@@ -6570,10 +6073,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I166" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -6607,10 +6107,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I167" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -6644,10 +6141,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I168" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -6681,10 +6175,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I169" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
@@ -6718,10 +6209,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I170" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -6755,10 +6243,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I171" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -6792,10 +6277,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I172" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -6829,10 +6311,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I173" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
@@ -6866,10 +6345,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I174" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -6903,10 +6379,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I175" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
@@ -6940,10 +6413,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I176" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -6977,10 +6447,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I177" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -7014,10 +6481,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I178" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -7051,10 +6515,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I179" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -7088,10 +6549,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I180" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -7125,10 +6583,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I181" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
@@ -7162,10 +6617,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I182" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -7199,10 +6651,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I183" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -7236,10 +6685,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I184" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -7273,10 +6719,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I185" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -7310,10 +6753,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I186" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
@@ -7347,10 +6787,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I187" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -7384,10 +6821,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I188" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -7421,10 +6855,7 @@
         <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I189" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -7458,10 +6889,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I190" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191">
@@ -7495,10 +6923,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I191" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192">
@@ -7532,10 +6957,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I192" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -7569,10 +6991,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I193" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -7606,10 +7025,7 @@
         <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I194" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
@@ -7643,10 +7059,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I195" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -7680,10 +7093,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I196" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -7717,10 +7127,7 @@
         <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I197" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -7754,10 +7161,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I198" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -7791,10 +7195,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I199" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -7828,10 +7229,7 @@
         <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I200" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
@@ -7865,10 +7263,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I201" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -7902,10 +7297,7 @@
         <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I202" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203">
@@ -7939,10 +7331,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I203" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -7976,10 +7365,7 @@
         <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I204" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
@@ -8013,10 +7399,7 @@
         <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I205" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -8050,10 +7433,7 @@
         <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I206" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -8087,10 +7467,7 @@
         <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I207" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -8124,10 +7501,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I208" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -8161,10 +7535,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I209" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -8198,10 +7569,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I210" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -8235,10 +7603,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I211" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
@@ -8272,10 +7637,7 @@
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I212" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
@@ -8309,10 +7671,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I213" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -8346,10 +7705,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I214" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -8383,10 +7739,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I215" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216">
@@ -8420,10 +7773,7 @@
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I216" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
@@ -8457,10 +7807,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I217" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -8494,10 +7841,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I218" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -8531,10 +7875,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I219" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
@@ -8568,10 +7909,7 @@
         <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I220" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -8605,10 +7943,7 @@
         <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I221" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -8642,10 +7977,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I222" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -8679,10 +8011,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I223" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -8716,10 +8045,7 @@
         <v>1</v>
       </c>
       <c r="H224" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I224" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -8753,10 +8079,7 @@
         <v>1</v>
       </c>
       <c r="H225" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I225" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226">
@@ -8790,10 +8113,7 @@
         <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I226" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -8827,10 +8147,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I227" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228">
@@ -8864,10 +8181,7 @@
         <v>1</v>
       </c>
       <c r="H228" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I228" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -8901,10 +8215,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I229" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -8938,10 +8249,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I230" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231">
@@ -8975,10 +8283,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I231" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -9012,10 +8317,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I232" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -9049,10 +8351,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I233" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
@@ -9086,10 +8385,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I234" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
@@ -9123,10 +8419,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I235" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -9160,10 +8453,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I236" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -9197,10 +8487,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I237" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -9234,10 +8521,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I238" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -9271,10 +8555,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I239" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240">
@@ -9308,10 +8589,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I240" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -9345,10 +8623,7 @@
         <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I241" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -9382,10 +8657,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I242" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -9415,10 +8687,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I243" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
@@ -9452,10 +8721,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I244" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -9489,10 +8755,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I245" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -9526,10 +8789,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I246" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -9563,10 +8823,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I247" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -9600,10 +8857,7 @@
         <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I248" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -9637,10 +8891,7 @@
         <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I249" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -9674,10 +8925,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I250" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -9711,10 +8959,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I251" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -9748,10 +8993,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I252" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -9785,10 +9027,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I253" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
@@ -9822,10 +9061,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I254" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
@@ -9859,10 +9095,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I255" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -9896,10 +9129,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I256" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
@@ -9933,10 +9163,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I257" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -9970,10 +9197,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I258" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259">
@@ -10007,10 +9231,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I259" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260">
@@ -10044,10 +9265,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I260" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -10081,10 +9299,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I261" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
@@ -10118,10 +9333,7 @@
         <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I262" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
@@ -10155,10 +9367,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I263" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264">
@@ -10192,10 +9401,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I264" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
@@ -10229,10 +9435,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I265" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -10266,10 +9469,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I266" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -10303,10 +9503,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I267" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -10340,10 +9537,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I268" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
@@ -10377,10 +9571,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I269" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
@@ -10414,10 +9605,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I270" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -10451,10 +9639,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I271" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -10488,10 +9673,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I272" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -10525,10 +9707,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I273" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -10562,10 +9741,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I274" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -10599,10 +9775,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I275" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276">
@@ -10636,10 +9809,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I276" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
@@ -10673,10 +9843,7 @@
         <v>1</v>
       </c>
       <c r="H277" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I277" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
@@ -10710,10 +9877,7 @@
         <v>1</v>
       </c>
       <c r="H278" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I278" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279">
@@ -10747,10 +9911,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I279" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
@@ -10784,10 +9945,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I280" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
@@ -10821,10 +9979,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I281" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
@@ -10858,10 +10013,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I282" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
@@ -10895,10 +10047,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I283" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
@@ -10932,10 +10081,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I284" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
@@ -10965,10 +10111,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I285" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
@@ -11002,10 +10145,7 @@
         <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I286" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -11039,10 +10179,7 @@
         <v>1</v>
       </c>
       <c r="H287" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I287" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -11076,10 +10213,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I288" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289">
@@ -11113,10 +10247,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I289" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -11150,10 +10281,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I290" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
@@ -11187,10 +10315,7 @@
         <v>1</v>
       </c>
       <c r="H291" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I291" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -11224,10 +10349,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I292" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
@@ -11261,10 +10383,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I293" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294">
@@ -11298,10 +10417,7 @@
         <v>1</v>
       </c>
       <c r="H294" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I294" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
@@ -11335,10 +10451,7 @@
         <v>1</v>
       </c>
       <c r="H295" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I295" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -11372,10 +10485,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I296" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
@@ -11409,10 +10519,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I297" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -11446,10 +10553,7 @@
         <v>1</v>
       </c>
       <c r="H298" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I298" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299">
@@ -11483,10 +10587,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I299" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
@@ -11520,10 +10621,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I300" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301">
@@ -11557,10 +10655,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I301" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
@@ -11594,10 +10689,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I302" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -11631,10 +10723,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I303" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
@@ -11668,10 +10757,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I304" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
@@ -11705,10 +10791,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I305" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -11742,10 +10825,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I306" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -11779,10 +10859,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I307" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
@@ -11816,10 +10893,7 @@
         <v>1</v>
       </c>
       <c r="H308" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I308" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309">
@@ -11853,10 +10927,7 @@
         <v>1</v>
       </c>
       <c r="H309" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I309" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -11890,10 +10961,7 @@
         <v>1</v>
       </c>
       <c r="H310" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I310" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -11927,10 +10995,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I311" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
@@ -11964,10 +11029,7 @@
         <v>1</v>
       </c>
       <c r="H312" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I312" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -12001,10 +11063,7 @@
         <v>1</v>
       </c>
       <c r="H313" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I313" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -12038,10 +11097,7 @@
         <v>1</v>
       </c>
       <c r="H314" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I314" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -12075,10 +11131,7 @@
         <v>1</v>
       </c>
       <c r="H315" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I315" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -12112,10 +11165,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I316" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317">
@@ -12149,10 +11199,7 @@
         <v>1</v>
       </c>
       <c r="H317" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I317" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
@@ -12186,10 +11233,7 @@
         <v>1</v>
       </c>
       <c r="H318" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I318" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319">
@@ -12223,10 +11267,7 @@
         <v>1</v>
       </c>
       <c r="H319" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I319" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -12260,10 +11301,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I320" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
@@ -12297,10 +11335,7 @@
         <v>1</v>
       </c>
       <c r="H321" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I321" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
@@ -12334,10 +11369,7 @@
         <v>1</v>
       </c>
       <c r="H322" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I322" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
@@ -12371,10 +11403,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I323" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324">
@@ -12408,10 +11437,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I324" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -12445,10 +11471,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I325" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
@@ -12482,10 +11505,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I326" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
@@ -12519,10 +11539,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I327" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
@@ -12556,10 +11573,7 @@
         <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I328" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -12593,10 +11607,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I329" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -12626,10 +11637,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I330" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331">
@@ -12663,10 +11671,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I331" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -12700,10 +11705,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I332" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
@@ -12737,10 +11739,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I333" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -12774,10 +11773,7 @@
         <v>1</v>
       </c>
       <c r="H334" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I334" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
@@ -12811,10 +11807,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I335" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -12848,10 +11841,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I336" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -12885,10 +11875,7 @@
         <v>1</v>
       </c>
       <c r="H337" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I337" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338">
@@ -12922,10 +11909,7 @@
         <v>1</v>
       </c>
       <c r="H338" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I338" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339">
@@ -12959,10 +11943,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I339" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
@@ -12996,10 +11977,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I340" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
@@ -13033,10 +12011,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I341" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
@@ -13070,10 +12045,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I342" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -13107,10 +12079,7 @@
         <v>1</v>
       </c>
       <c r="H343" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I343" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
@@ -13144,10 +12113,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -13181,10 +12147,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I345" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -13218,10 +12181,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I346" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -13255,10 +12215,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I347" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -13292,10 +12249,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I348" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -13329,10 +12283,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I349" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
@@ -13366,10 +12317,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I350" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -13403,10 +12351,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I351" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352">
@@ -13440,10 +12385,7 @@
         <v>1</v>
       </c>
       <c r="H352" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I352" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -13477,10 +12419,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I353" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -13514,10 +12453,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I354" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
@@ -13551,10 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I355" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356">
@@ -13588,10 +12521,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I356" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
@@ -13625,10 +12555,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I357" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
@@ -13662,10 +12589,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I358" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -13699,10 +12623,7 @@
         <v>1</v>
       </c>
       <c r="H359" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I359" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -13736,10 +12657,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I360" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
@@ -13773,10 +12691,7 @@
         <v>1</v>
       </c>
       <c r="H361" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I361" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362">
@@ -13810,10 +12725,7 @@
         <v>1</v>
       </c>
       <c r="H362" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I362" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -13847,10 +12759,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I363" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
@@ -13884,10 +12793,7 @@
         <v>1</v>
       </c>
       <c r="H364" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I364" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -13921,10 +12827,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I365" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
@@ -13958,10 +12861,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I366" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -13995,10 +12895,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I367" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368">
@@ -14032,10 +12929,7 @@
         <v>1</v>
       </c>
       <c r="H368" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I368" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
@@ -14069,10 +12963,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I369" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
@@ -14106,10 +12997,7 @@
         <v>1</v>
       </c>
       <c r="H370" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I370" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
@@ -14143,10 +13031,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I371" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
@@ -14180,10 +13065,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I372" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -14217,10 +13099,7 @@
         <v>1</v>
       </c>
       <c r="H373" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I373" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374">
@@ -14254,10 +13133,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I374" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -14291,10 +13167,7 @@
         <v>1</v>
       </c>
       <c r="H375" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="I375" t="b">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
